--- a/StructureDefinition-us-core-authentication-time.xlsx
+++ b/StructureDefinition-us-core-authentication-time.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-authentication-time</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-authentication-time</t>
   </si>
   <si>
     <t>Version</t>
